--- a/grafic.xlsx
+++ b/grafic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lucrari\rox\___OpenClassrooms\CURS_complet_finantat\projets_oc\008_portfolio\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9E0E02-F586-4E77-AB68-AC040746566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BB6C2-BA4B-4FB6-99CE-58721AEDA3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2655D8F5-CB22-488D-8F4A-F376EAAE1C01}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Mes projets de développement web, allant des plus simples aux plus complexes</t>
   </si>
   <si>
-    <t xml:space="preserve">Portfolio </t>
-  </si>
-  <si>
     <t>Page d'accueil avec HTML &amp; CSS</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Amélioration continue portfolio</t>
+  </si>
+  <si>
+    <t>PORTFOLIO</t>
   </si>
 </sst>
 </file>
@@ -108,12 +108,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC2AA18"/>
+      <color rgb="FF923E56"/>
+      <color rgb="FFE7CF3D"/>
+      <color rgb="FFF2E492"/>
+      <color rgb="FFE4C820"/>
+      <color rgb="FFA52B8B"/>
       <color rgb="FF968312"/>
-      <color rgb="FFC2AA18"/>
-      <color rgb="FFE4C820"/>
-      <color rgb="FFE7CF3D"/>
       <color rgb="FFECD862"/>
-      <color rgb="FFF2E492"/>
       <color rgb="FFF6EDB4"/>
     </mruColors>
   </colors>
@@ -156,6 +158,7 @@
                     <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -169,6 +172,7 @@
                     <a:lumOff val="5000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst/>
               </a:rPr>
               <a:t>La validation de mes</a:t>
             </a:r>
@@ -180,6 +184,7 @@
                     <a:lumOff val="5000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst/>
               </a:rPr>
               <a:t> projets</a:t>
             </a:r>
@@ -190,10 +195,19 @@
                   <a:lumOff val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15882413979099402"/>
+          <c:y val="1.7449665044290547E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -280,7 +294,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.13062139450735183"/>
+                  <c:x val="-0.11479185875817301"/>
                   <c:y val="-4.6037574945395371E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -327,274 +341,10 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D7AA8471-5865-4384-87B9-CD3BB6D25CA3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{6822607B-4710-4F79-B77D-F90707A83781}" type="XVALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-D437-4BE6-A03D-73C40C1EA1CE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E027E3E2-DBE5-4751-B0DE-9D422AC9ABE3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{D4AC58E3-7D72-4A2C-9A8D-2538C968D28C}" type="XVALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-D437-4BE6-A03D-73C40C1EA1CE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B003558C-0AA2-446B-94DC-8B583F197575}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{70F759F1-4262-4082-AA69-2C7360315FF2}" type="XVALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-D437-4BE6-A03D-73C40C1EA1CE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1740789C-8FAB-4C07-BCC3-B697EF43AADA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{652CE05C-43C9-4EB9-BA8A-D57E6EF7E4C3}" type="XVALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-D437-4BE6-A03D-73C40C1EA1CE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{619DDCE4-36D7-42C4-9862-3CEEA60C3C7C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{0253523C-6AEE-4169-8B1C-4D7227D9856E}" type="XVALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-D437-4BE6-A03D-73C40C1EA1CE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EDFB9C11-8934-4ABE-B9DC-D69CD0696E7A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{24806517-1593-4153-839D-F7A7633B9B29}" type="XVALUE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[X VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-D437-4BE6-A03D-73C40C1EA1CE}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7738308447580035E-2"/>
-                  <c:y val="-5.4577684203827401E-2"/>
+                  <c:x val="-0.2203686224970717"/>
+                  <c:y val="-5.6560272562852107E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -602,7 +352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{212BB025-48C3-45EA-B7FD-04ADCCD081F2}" type="CELLRANGE">
+                    <a:fld id="{D7AA8471-5865-4384-87B9-CD3BB6D25CA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -610,7 +360,7 @@
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                   <a:p>
-                    <a:fld id="{719FBFB3-8F1D-4A7F-9793-BD4ACADF5DF7}" type="XVALUE">
+                    <a:fld id="{6822607B-4710-4F79-B77D-F90707A83781}" type="XVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -634,6 +384,300 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D437-4BE6-A03D-73C40C1EA1CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19768034996982109"/>
+                  <c:y val="-5.6560272562852107E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E027E3E2-DBE5-4751-B0DE-9D422AC9ABE3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{D4AC58E3-7D72-4A2C-9A8D-2538C968D28C}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D437-4BE6-A03D-73C40C1EA1CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20675646915375248"/>
+                  <c:y val="-5.6560272562852107E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B003558C-0AA2-446B-94DC-8B583F197575}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{70F759F1-4262-4082-AA69-2C7360315FF2}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D437-4BE6-A03D-73C40C1EA1CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.198875978400787"/>
+                  <c:y val="-5.6560272562851996E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1740789C-8FAB-4C07-BCC3-B697EF43AADA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{652CE05C-43C9-4EB9-BA8A-D57E6EF7E4C3}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-D437-4BE6-A03D-73C40C1EA1CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13258045407705557"/>
+                  <c:y val="-5.6560272562851996E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{619DDCE4-36D7-42C4-9862-3CEEA60C3C7C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{0253523C-6AEE-4169-8B1C-4D7227D9856E}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D437-4BE6-A03D-73C40C1EA1CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9277612332827804E-2"/>
+                  <c:y val="-5.6560272562852051E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EDFB9C11-8934-4ABE-B9DC-D69CD0696E7A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{24806517-1593-4153-839D-F7A7633B9B29}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-D437-4BE6-A03D-73C40C1EA1CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11731212009506446"/>
+                  <c:y val="-5.4577605896795993E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{212BB025-48C3-45EA-B7FD-04ADCCD081F2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{719FBFB3-8F1D-4A7F-9793-BD4ACADF5DF7}" type="XVALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[X VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-D437-4BE6-A03D-73C40C1EA1CE}"/>
                 </c:ext>
               </c:extLst>
@@ -642,7 +686,7 @@
               <a:noFill/>
               <a:ln w="6350">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:srgbClr val="C2AA18"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst>
@@ -662,10 +706,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -789,7 +830,7 @@
                     <c:v>Planifiez le développement d'un site </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Portfolio </c:v>
+                    <c:v>PORTFOLIO</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>Amélioration continue portfolio</c:v>
@@ -819,17 +860,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -850,17 +886,12 @@
           <c:max val="10"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -870,6 +901,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1002115440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -877,15 +925,11 @@
       <c:spPr>
         <a:gradFill>
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E7CF3D"/>
+            </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
+              <a:srgbClr val="923E56"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -909,7 +953,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:srgbClr val="923E56"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -944,16 +988,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>402983</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1289539</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>659423</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>51288</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219807</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1281,7 +1325,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +1373,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
